--- a/Data/Completing college/EducationReport(32).xlsx
+++ b/Data/Completing college/EducationReport(32).xlsx
@@ -323,141 +323,753 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">10000</t>
+          <t xml:space="preserve">34000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Delaware</t>
+          <t xml:space="preserve">New Jersey</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.453950138311383</v>
+        <v>0.118356576901972</v>
       </c>
       <c s="7" r="E4">
-        <v>0.313537807153199</v>
+        <v>0.1833913637507</v>
       </c>
       <c s="7" r="F4">
-        <v>0.225139381888873</v>
+        <v>0.248540280703561</v>
       </c>
       <c s="7" r="G4">
-        <v>0.17397184149474</v>
+        <v>0.297794425005201</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.123230863323781</v>
+        <v>0.353813944045045</v>
       </c>
       <c s="7" r="J4">
-        <v>0.0894676941521941</v>
+        <v>0.415005694361132</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">10001</t>
+          <t xml:space="preserve">34001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Kent, DE        </t>
+          <t xml:space="preserve">Atlantic, NJ        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="7" r="D5">
-        <v>0.477341160395739</v>
+        <v>0.0616139636966494</v>
       </c>
       <c s="7" r="E5">
-        <v>0.346158170914543</v>
+        <v>0.124847397663004</v>
       </c>
       <c s="7" r="F5">
-        <v>0.268548053635773</v>
+        <v>0.164231018299074</v>
       </c>
       <c s="7" r="G5">
-        <v>0.205832250249215</v>
+        <v>0.186945996938521</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.150975362291096</v>
+        <v>0.240894030801109</v>
       </c>
       <c s="7" r="J5">
-        <v>0.111818204387656</v>
+        <v>0.294112725694535</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">10003</t>
+          <t xml:space="preserve">34003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">New Castle, DE        </t>
+          <t xml:space="preserve">Bergen, NJ        </t>
         </is>
       </c>
       <c s="8" r="C6">
         <v>1</v>
       </c>
       <c s="7" r="D6">
-        <v>0.423767445295001</v>
+        <v>0.156198017857783</v>
       </c>
       <c s="7" r="E6">
-        <v>0.276139537699219</v>
+        <v>0.238450420034124</v>
       </c>
       <c s="7" r="F6">
-        <v>0.193640793632337</v>
+        <v>0.317025266059916</v>
       </c>
       <c s="7" r="G6">
-        <v>0.145454265570641</v>
+        <v>0.38234619523986</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.107644778969837</v>
+        <v>0.454910422017425</v>
       </c>
       <c s="7" r="J6">
-        <v>0.0762630640982944</v>
-      </c>
-    </row>
-    <row r="7" ht="20.6" customHeight="0">
+        <v>0.512309591690896</v>
+      </c>
+    </row>
+    <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">10005</t>
+          <t xml:space="preserve">34005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Sussex, DE        </t>
+          <t xml:space="preserve">Burlington, NJ        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="7" r="D7">
-        <v>0.57033013701692</v>
+        <v>0.125813061323495</v>
       </c>
       <c s="7" r="E7">
-        <v>0.428647594928273</v>
+        <v>0.184130065518078</v>
       </c>
       <c s="7" r="F7">
-        <v>0.303089354847091</v>
+        <v>0.236167960479887</v>
       </c>
       <c s="7" r="G7">
-        <v>0.234893624716318</v>
+        <v>0.283898260568091</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.141795695988011</v>
+        <v>0.341538151592547</v>
       </c>
       <c s="7" r="J7">
-        <v>0.103599161140396</v>
-      </c>
-    </row>
-    <row r="8" ht="0.05" customHeight="1"/>
-    <row r="9" ht="5.95" customHeight="1"/>
-    <row r="10" ht="222.75" customHeight="1">
-      <c s="9" t="inlineStr" r="A10">
+        <v>0.399508698972316</v>
+      </c>
+    </row>
+    <row r="8" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A8">
+        <is>
+          <t xml:space="preserve">34007</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">Camden, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C8">
+        <v>1</v>
+      </c>
+      <c s="7" r="D8">
+        <v>0.0977091467148003</v>
+      </c>
+      <c s="7" r="E8">
+        <v>0.162247331671361</v>
+      </c>
+      <c s="7" r="F8">
+        <v>0.210210154187693</v>
+      </c>
+      <c s="7" r="G8">
+        <v>0.240236311847241</v>
+      </c>
+      <c s="3" t="str" r="H8"/>
+      <c s="7" r="I8">
+        <v>0.286777648367238</v>
+      </c>
+      <c s="7" r="J8">
+        <v>0.336445402099117</v>
+      </c>
+    </row>
+    <row r="9" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">34009</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">Cape May, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C9">
+        <v>3</v>
+      </c>
+      <c s="7" r="D9">
+        <v>0.0729097168476956</v>
+      </c>
+      <c s="7" r="E9">
+        <v>0.129863145792382</v>
+      </c>
+      <c s="7" r="F9">
+        <v>0.172401237939195</v>
+      </c>
+      <c s="7" r="G9">
+        <v>0.220203627981009</v>
+      </c>
+      <c s="3" t="str" r="H9"/>
+      <c s="7" r="I9">
+        <v>0.275706325979289</v>
+      </c>
+      <c s="7" r="J9">
+        <v>0.349767118526243</v>
+      </c>
+    </row>
+    <row r="10" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A10">
+        <is>
+          <t xml:space="preserve">34011</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">Cumberland, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C10">
+        <v>3</v>
+      </c>
+      <c s="7" r="D10">
+        <v>0.0568418216920843</v>
+      </c>
+      <c s="7" r="E10">
+        <v>0.0870041639272408</v>
+      </c>
+      <c s="7" r="F10">
+        <v>0.108352424697266</v>
+      </c>
+      <c s="7" r="G10">
+        <v>0.117493472584856</v>
+      </c>
+      <c s="3" t="str" r="H10"/>
+      <c s="7" r="I10">
+        <v>0.140322967080358</v>
+      </c>
+      <c s="7" r="J10">
+        <v>0.170483727768284</v>
+      </c>
+    </row>
+    <row r="11" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A11">
+        <is>
+          <t xml:space="preserve">34013</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">Essex, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C11">
+        <v>1</v>
+      </c>
+      <c s="7" r="D11">
+        <v>0.121664829933503</v>
+      </c>
+      <c s="7" r="E11">
+        <v>0.179633932224025</v>
+      </c>
+      <c s="7" r="F11">
+        <v>0.240123976247763</v>
+      </c>
+      <c s="7" r="G11">
+        <v>0.274873921763343</v>
+      </c>
+      <c s="3" t="str" r="H11"/>
+      <c s="7" r="I11">
+        <v>0.318039430321521</v>
+      </c>
+      <c s="7" r="J11">
+        <v>0.366520323393123</v>
+      </c>
+    </row>
+    <row r="12" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">34015</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">Gloucester, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C12">
+        <v>1</v>
+      </c>
+      <c s="7" r="D12">
+        <v>0.0801384539311027</v>
+      </c>
+      <c s="7" r="E12">
+        <v>0.130665868832552</v>
+      </c>
+      <c s="7" r="F12">
+        <v>0.181162468366214</v>
+      </c>
+      <c s="7" r="G12">
+        <v>0.219525366957725</v>
+      </c>
+      <c s="3" t="str" r="H12"/>
+      <c s="7" r="I12">
+        <v>0.280501567398119</v>
+      </c>
+      <c s="7" r="J12">
+        <v>0.344793247571491</v>
+      </c>
+    </row>
+    <row r="13" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">34017</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">Hudson, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C13">
+        <v>1</v>
+      </c>
+      <c s="7" r="D13">
+        <v>0.0561668267252024</v>
+      </c>
+      <c s="7" r="E13">
+        <v>0.111694329889396</v>
+      </c>
+      <c s="7" r="F13">
+        <v>0.197244871085121</v>
+      </c>
+      <c s="7" r="G13">
+        <v>0.252828407114499</v>
+      </c>
+      <c s="3" t="str" r="H13"/>
+      <c s="7" r="I13">
+        <v>0.359065740734455</v>
+      </c>
+      <c s="7" r="J13">
+        <v>0.456725864016794</v>
+      </c>
+    </row>
+    <row r="14" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">34019</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">Hunterdon, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C14">
+        <v>1</v>
+      </c>
+      <c s="7" r="D14">
+        <v>0.120727420915898</v>
+      </c>
+      <c s="7" r="E14">
+        <v>0.241493321241663</v>
+      </c>
+      <c s="7" r="F14">
+        <v>0.346112051059849</v>
+      </c>
+      <c s="7" r="G14">
+        <v>0.417700004787667</v>
+      </c>
+      <c s="3" t="str" r="H14"/>
+      <c s="7" r="I14">
+        <v>0.481380348795397</v>
+      </c>
+      <c s="7" r="J14">
+        <v>0.543194704956557</v>
+      </c>
+    </row>
+    <row r="15" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">34021</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">Mercer, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C15">
+        <v>2</v>
+      </c>
+      <c s="7" r="D15">
+        <v>0.140943268850246</v>
+      </c>
+      <c s="7" r="E15">
+        <v>0.21767730876366</v>
+      </c>
+      <c s="7" r="F15">
+        <v>0.295081049301492</v>
+      </c>
+      <c s="7" r="G15">
+        <v>0.339648436655</v>
+      </c>
+      <c s="3" t="str" r="H15"/>
+      <c s="7" r="I15">
+        <v>0.382372622512696</v>
+      </c>
+      <c s="7" r="J15">
+        <v>0.435994388042213</v>
+      </c>
+    </row>
+    <row r="16" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">34023</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">Middlesex, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C16">
+        <v>1</v>
+      </c>
+      <c s="7" r="D16">
+        <v>0.111712070504956</v>
+      </c>
+      <c s="7" r="E16">
+        <v>0.181498571742474</v>
+      </c>
+      <c s="7" r="F16">
+        <v>0.264861653104121</v>
+      </c>
+      <c s="7" r="G16">
+        <v>0.330041551025617</v>
+      </c>
+      <c s="3" t="str" r="H16"/>
+      <c s="7" r="I16">
+        <v>0.397534600724101</v>
+      </c>
+      <c s="7" r="J16">
+        <v>0.448433061912092</v>
+      </c>
+    </row>
+    <row r="17" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A17">
+        <is>
+          <t xml:space="preserve">34025</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">Monmouth, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C17">
+        <v>1</v>
+      </c>
+      <c s="7" r="D17">
+        <v>0.142728381102603</v>
+      </c>
+      <c s="7" r="E17">
+        <v>0.2157761447812</v>
+      </c>
+      <c s="7" r="F17">
+        <v>0.284341713229174</v>
+      </c>
+      <c s="7" r="G17">
+        <v>0.345815841843034</v>
+      </c>
+      <c s="3" t="str" r="H17"/>
+      <c s="7" r="I17">
+        <v>0.403007616631116</v>
+      </c>
+      <c s="7" r="J17">
+        <v>0.48512911803942</v>
+      </c>
+    </row>
+    <row r="18" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A18">
+        <is>
+          <t xml:space="preserve">34027</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">Morris, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C18">
+        <v>1</v>
+      </c>
+      <c s="7" r="D18">
+        <v>0.198656048975297</v>
+      </c>
+      <c s="7" r="E18">
+        <v>0.286024954137357</v>
+      </c>
+      <c s="7" r="F18">
+        <v>0.367016601390832</v>
+      </c>
+      <c s="7" r="G18">
+        <v>0.440810050605006</v>
+      </c>
+      <c s="3" t="str" r="H18"/>
+      <c s="7" r="I18">
+        <v>0.490144901185075</v>
+      </c>
+      <c s="7" r="J18">
+        <v>0.557537249863848</v>
+      </c>
+    </row>
+    <row r="19" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A19">
+        <is>
+          <t xml:space="preserve">34029</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">Ocean, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C19">
+        <v>1</v>
+      </c>
+      <c s="7" r="D19">
+        <v>0.0728816182880233</v>
+      </c>
+      <c s="7" r="E19">
+        <v>0.124309207445171</v>
+      </c>
+      <c s="7" r="F19">
+        <v>0.153228082407822</v>
+      </c>
+      <c s="7" r="G19">
+        <v>0.194877132667697</v>
+      </c>
+      <c s="3" t="str" r="H19"/>
+      <c s="7" r="I19">
+        <v>0.249547058262611</v>
+      </c>
+      <c s="7" r="J19">
+        <v>0.322275080160111</v>
+      </c>
+    </row>
+    <row r="20" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">34031</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">Passaic, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C20">
+        <v>1</v>
+      </c>
+      <c s="7" r="D20">
+        <v>0.0839837065064899</v>
+      </c>
+      <c s="7" r="E20">
+        <v>0.137547871454737</v>
+      </c>
+      <c s="7" r="F20">
+        <v>0.187078270314303</v>
+      </c>
+      <c s="7" r="G20">
+        <v>0.211999962073445</v>
+      </c>
+      <c s="3" t="str" r="H20"/>
+      <c s="7" r="I20">
+        <v>0.258295414662981</v>
+      </c>
+      <c s="7" r="J20">
+        <v>0.298486082471249</v>
+      </c>
+    </row>
+    <row r="21" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A21">
+        <is>
+          <t xml:space="preserve">34033</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">Salem, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C21">
+        <v>1</v>
+      </c>
+      <c s="7" r="D21">
+        <v>0.0567554595632349</v>
+      </c>
+      <c s="7" r="E21">
+        <v>0.0895883147936376</v>
+      </c>
+      <c s="7" r="F21">
+        <v>0.117809179026042</v>
+      </c>
+      <c s="7" r="G21">
+        <v>0.152188646614784</v>
+      </c>
+      <c s="3" t="str" r="H21"/>
+      <c s="7" r="I21">
+        <v>0.189926175538165</v>
+      </c>
+      <c s="7" r="J21">
+        <v>0.233486774001718</v>
+      </c>
+    </row>
+    <row r="22" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A22">
+        <is>
+          <t xml:space="preserve">34035</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">Somerset, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C22">
+        <v>1</v>
+      </c>
+      <c s="7" r="D22">
+        <v>0.190372090904951</v>
+      </c>
+      <c s="7" r="E22">
+        <v>0.265968909946599</v>
+      </c>
+      <c s="7" r="F22">
+        <v>0.383435948835433</v>
+      </c>
+      <c s="7" r="G22">
+        <v>0.465119920917281</v>
+      </c>
+      <c s="3" t="str" r="H22"/>
+      <c s="7" r="I22">
+        <v>0.505541439152295</v>
+      </c>
+      <c s="7" r="J22">
+        <v>0.561286974571873</v>
+      </c>
+    </row>
+    <row r="23" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A23">
+        <is>
+          <t xml:space="preserve">34037</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">Sussex, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C23">
+        <v>1</v>
+      </c>
+      <c s="7" r="D23">
+        <v>0.0980470494230453</v>
+      </c>
+      <c s="7" r="E23">
+        <v>0.189003890479336</v>
+      </c>
+      <c s="7" r="F23">
+        <v>0.249327064565912</v>
+      </c>
+      <c s="7" r="G23">
+        <v>0.272162281531958</v>
+      </c>
+      <c s="3" t="str" r="H23"/>
+      <c s="7" r="I23">
+        <v>0.31634858993045</v>
+      </c>
+      <c s="7" r="J23">
+        <v>0.381027018244722</v>
+      </c>
+    </row>
+    <row r="24" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A24">
+        <is>
+          <t xml:space="preserve">34039</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">Union, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C24">
+        <v>1</v>
+      </c>
+      <c s="7" r="D24">
+        <v>0.140365703035762</v>
+      </c>
+      <c s="7" r="E24">
+        <v>0.191452235171819</v>
+      </c>
+      <c s="7" r="F24">
+        <v>0.249547552657797</v>
+      </c>
+      <c s="7" r="G24">
+        <v>0.284805756131661</v>
+      </c>
+      <c s="3" t="str" r="H24"/>
+      <c s="7" r="I24">
+        <v>0.316205951209204</v>
+      </c>
+      <c s="7" r="J24">
+        <v>0.375892790643323</v>
+      </c>
+    </row>
+    <row r="25" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">34041</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">Warren, NJ        </t>
+        </is>
+      </c>
+      <c s="8" r="C25">
+        <v>2</v>
+      </c>
+      <c s="7" r="D25">
+        <v>0.0723124240040054</v>
+      </c>
+      <c s="7" r="E25">
+        <v>0.126003272812281</v>
+      </c>
+      <c s="7" r="F25">
+        <v>0.195804425738993</v>
+      </c>
+      <c s="7" r="G25">
+        <v>0.243963891328448</v>
+      </c>
+      <c s="3" t="str" r="H25"/>
+      <c s="7" r="I25">
+        <v>0.290678604075926</v>
+      </c>
+      <c s="7" r="J25">
+        <v>0.344926725015266</v>
+      </c>
+    </row>
+    <row r="26" ht="0.05" customHeight="1"/>
+    <row r="27" ht="5.95" customHeight="1"/>
+    <row r="28" ht="222.75" customHeight="1">
+      <c s="9" t="inlineStr" r="A28">
         <is>
           <r>
             <rPr>
@@ -709,7 +1321,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.75" customHeight="1"/>
+    <row r="29" ht="14.75" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:J2"/>
@@ -718,10 +1330,28 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A28" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
